--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>用例标题</t>
   </si>
@@ -328,6 +328,14 @@
   </si>
   <si>
     <t>{"goods_id": "$...goods_id", }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token": "$...token", "userId": "$...id"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1243,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1336,6 +1344,9 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>33</v>
@@ -1450,9 +1461,10 @@
       <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="27">
       <c r="A7" s="1" t="s">
@@ -1656,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
     <t>用例标题</t>
   </si>
@@ -91,14 +91,6 @@
     <t>c5</t>
   </si>
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -112,13 +104,6 @@
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "username": "admin",
-    "password": "123456"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -158,17 +143,41 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>select * from sp_user; ${sql()}</t>
-  </si>
-  <si>
-    <t>select * from sp_user where user_id=$userId;</t>
-  </si>
-  <si>
-    <t>{"token": "$...token", "userId": "$...id"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>商品列表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据 ID 查询商品</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>是否跳过(支持条件跳过)</t>
+  </si>
+  <si>
+    <t>${token}!=None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "username": "admin",
+    "password": "123456"
+}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -176,7 +185,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c6</t>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -186,12 +196,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品列表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{"goods_id": "$...goods.[2].goods_id"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -219,12 +225,61 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>{"Authorization": "${token}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods/${goods_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${token}!=None;${goods_id}!=None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>goods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加商品</t>
+    <t>${token}!=None</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "goods_name":"商品_${fk.random_int(min=1000,max=9999)}",
+  "goods_cat": "1,2,3",
+  "goods_price":20,
+  "goods_number":30,
+  "goods_weight":40,
+  "goods_introduce":"abc",
+  "attrs":[
+    {
+      "attr_id":15,
+      "attr_value":"dderd"
+    },
+    {
+      "attr_id":15,
+      "attr_value":"324"
+    }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"goods_id": "$...goods_id", "userId": "$...id"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -252,21 +307,32 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>goods/${goods_id}</t>
+    <t>根据 ID 查询编辑商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据 ID 查询商品</t>
-  </si>
-  <si>
-    <t>{}</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>{
+  "goods_name":"商品_${fk.random_int(min=1000,max=9999)}",
+"goods_cat": "1,2,3",
+  "goods_price":20,
+  "goods_number":30,
+  "goods_weight":40,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delete</t>
+    <t>{"goods_id": "$...goods_id", "userId": "$...id"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据 ID 查询商品删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${token}!=None;${goods_id}!=None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,47 +361,128 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"goods_id": "$...goods.[2].goods_id"}</t>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file": './config/1.jpg' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$..msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","$..status":200}</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "goods_name":"商品_${fk.random_int(min=1000,max=9999)}",
-  "goods_cat": "1,2,3",
-  "goods_price":20,
-  "goods_number":30,
-  "goods_weight":40,
-  "goods_introduce":"abc",
-  "attrs":[
-    {
-      "attr_id":15,
-      "attr_value":"dderd"
-    },
-    {
-      "attr_id":15,
-      "attr_value":"324"
-    }
-    ]
+    <t>c9</t>
+  </si>
+  <si>
+    <t>上传多个图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file": ['./config/1.jpg','./config/3.jpg'],}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from sp_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from sp_user where user_id=${userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM sp_goods WHERE goods_id = ${goods_id};SELECT * FROM sp_goods WHERE goods_id = ${goods_id}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$..msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","$..status":200}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token": "$...token", "userId": "$...id"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM sp_goods WHERE goods_id = ${goods_id}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$..msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建商品成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","$..status":200,
+"$..sql_0_data.goods_id":"${goods_id}"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>{"Authorization": "${token}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"goods_id": "$...goods_id", }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"token": "$...token", "userId": "$...id"}</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,11 +581,981 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="145">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFD84472"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC80000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC4E59F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B853"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1249,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1261,17 +2378,20 @@
     <col min="2" max="2" width="21.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="7" customWidth="1"/>
-    <col min="5" max="8" width="9.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="31.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="18" style="7" customWidth="1"/>
-    <col min="12" max="12" width="30.25" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="5" max="5" width="9.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="18" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.25" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1283,31 +2403,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="54">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="54">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,195 +2438,207 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="54">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="54">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="54">
+    <row r="4" spans="1:13" ht="54">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="27">
+    <row r="5" spans="1:13" ht="27">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>41</v>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="270">
+    <row r="6" spans="1:13" ht="220.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="27">
+    <row r="7" spans="1:13" ht="27">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>41</v>
+      <c r="J7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:13" ht="135">
+      <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>45</v>
@@ -1512,150 +2647,286 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>50</v>
+      <c r="M9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="40.5">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="144" priority="36" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="40" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="31" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="32" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="33" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="34" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="35" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="22" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="23" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="24" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="25" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="19" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="20" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="14" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="15" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="7" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="8" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="9" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="10" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="109" priority="41" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="42" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="43" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="44" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="45" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E8">
+    <cfRule type="cellIs" dxfId="94" priority="26" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="27" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="28" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="29" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="30" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN3 WLR1:WLR3 WBV1:WBV3 VRZ1:VRZ3 VID1:VID3 UYH1:UYH3 UOL1:UOL3 UEP1:UEP3 TUT1:TUT3 TKX1:TKX3 TBB1:TBB3 SRF1:SRF3 SHJ1:SHJ3 RXN1:RXN3 RNR1:RNR3 RDV1:RDV3 QTZ1:QTZ3 QKD1:QKD3 QAH1:QAH3 PQL1:PQL3 PGP1:PGP3 OWT1:OWT3 OMX1:OMX3 ODB1:ODB3 NTF1:NTF3 NJJ1:NJJ3 MZN1:MZN3 MPR1:MPR3 MFV1:MFV3 LVZ1:LVZ3 LMD1:LMD3 LCH1:LCH3 KSL1:KSL3 KIP1:KIP3 JYT1:JYT3 JOX1:JOX3 JFB1:JFB3 IVF1:IVF3 ILJ1:ILJ3 IBN1:IBN3 HRR1:HRR3 HHV1:HHV3 GXZ1:GXZ3 GOD1:GOD3 GEH1:GEH3 FUL1:FUL3 FKP1:FKP3 FAT1:FAT3 EQX1:EQX3 EHB1:EHB3 DXF1:DXF3 DNJ1:DNJ3 DDN1:DDN3 CTR1:CTR3 CJV1:CJV3 BZZ1:BZZ3 BQD1:BQD3 BGH1:BGH3 AWL1:AWL3 AMP1:AMP3 ACT1:ACT3 SX1:SX3 JB1:JB3 F1:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO3 WLS1:WLS3 WBW1:WBW3 VSA1:VSA3 VIE1:VIE3 UYI1:UYI3 UOM1:UOM3 UEQ1:UEQ3 TUU1:TUU3 TKY1:TKY3 TBC1:TBC3 SRG1:SRG3 SHK1:SHK3 RXO1:RXO3 RNS1:RNS3 RDW1:RDW3 QUA1:QUA3 QKE1:QKE3 QAI1:QAI3 PQM1:PQM3 PGQ1:PGQ3 OWU1:OWU3 OMY1:OMY3 ODC1:ODC3 NTG1:NTG3 NJK1:NJK3 MZO1:MZO3 MPS1:MPS3 MFW1:MFW3 LWA1:LWA3 LME1:LME3 LCI1:LCI3 KSM1:KSM3 KIQ1:KIQ3 JYU1:JYU3 JOY1:JOY3 JFC1:JFC3 IVG1:IVG3 ILK1:ILK3 IBO1:IBO3 HRS1:HRS3 HHW1:HHW3 GYA1:GYA3 GOE1:GOE3 GEI1:GEI3 FUM1:FUM3 FKQ1:FKQ3 FAU1:FAU3 EQY1:EQY3 EHC1:EHC3 DXG1:DXG3 DNK1:DNK3 DDO1:DDO3 CTS1:CTS3 CJW1:CJW3 CAA1:CAA3 BQE1:BQE3 BGI1:BGI3 AWM1:AWM3 AMQ1:AMQ3 ACU1:ACU3 SY1:SY3 JC1:JC3 G1:G11">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO3 WLS1:WLS3 WBW1:WBW3 VSA1:VSA3 VIE1:VIE3 UYI1:UYI3 UOM1:UOM3 UEQ1:UEQ3 TUU1:TUU3 TKY1:TKY3 TBC1:TBC3 SRG1:SRG3 SHK1:SHK3 RXO1:RXO3 RNS1:RNS3 RDW1:RDW3 QUA1:QUA3 QKE1:QKE3 QAI1:QAI3 PQM1:PQM3 PGQ1:PGQ3 OWU1:OWU3 OMY1:OMY3 ODC1:ODC3 NTG1:NTG3 NJK1:NJK3 MZO1:MZO3 MPS1:MPS3 MFW1:MFW3 LWA1:LWA3 LME1:LME3 LCI1:LCI3 KSM1:KSM3 KIQ1:KIQ3 JYU1:JYU3 JOY1:JOY3 JFC1:JFC3 IVG1:IVG3 ILK1:ILK3 IBO1:IBO3 HRS1:HRS3 HHW1:HHW3 GYA1:GYA3 GOE1:GOE3 GEI1:GEI3 FUM1:FUM3 FKQ1:FKQ3 FAU1:FAU3 EQY1:EQY3 EHC1:EHC3 DXG1:DXG3 DNK1:DNK3 DDO1:DDO3 CTS1:CTS3 CJW1:CJW3 CAA1:CAA3 BQE1:BQE3 BGI1:BGI3 AWM1:AWM3 AMQ1:AMQ3 ACU1:ACU3 SY1:SY3 JC1:JC3 G1:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1:WVP3 WLT1:WLT3 WBX1:WBX3 VSB1:VSB3 VIF1:VIF3 UYJ1:UYJ3 UON1:UON3 UER1:UER3 TUV1:TUV3 TKZ1:TKZ3 TBD1:TBD3 SRH1:SRH3 SHL1:SHL3 RXP1:RXP3 RNT1:RNT3 RDX1:RDX3 QUB1:QUB3 QKF1:QKF3 QAJ1:QAJ3 PQN1:PQN3 PGR1:PGR3 OWV1:OWV3 OMZ1:OMZ3 ODD1:ODD3 NTH1:NTH3 NJL1:NJL3 MZP1:MZP3 MPT1:MPT3 MFX1:MFX3 LWB1:LWB3 LMF1:LMF3 LCJ1:LCJ3 KSN1:KSN3 KIR1:KIR3 JYV1:JYV3 JOZ1:JOZ3 JFD1:JFD3 IVH1:IVH3 ILL1:ILL3 IBP1:IBP3 HRT1:HRT3 HHX1:HHX3 GYB1:GYB3 GOF1:GOF3 GEJ1:GEJ3 FUN1:FUN3 FKR1:FKR3 FAV1:FAV3 EQZ1:EQZ3 EHD1:EHD3 DXH1:DXH3 DNL1:DNL3 DDP1:DDP3 CTT1:CTT3 CJX1:CJX3 CAB1:CAB3 BQF1:BQF3 BGJ1:BGJ3 AWN1:AWN3 AMR1:AMR3 ACV1:ACV3 SZ1:SZ3 JD1:JD3 H1:H11">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM1:WVM3 WLQ1:WLQ3 WBU1:WBU3 VRY1:VRY3 VIC1:VIC3 UYG1:UYG3 UOK1:UOK3 UEO1:UEO3 TUS1:TUS3 TKW1:TKW3 TBA1:TBA3 SRE1:SRE3 SHI1:SHI3 RXM1:RXM3 RNQ1:RNQ3 RDU1:RDU3 QTY1:QTY3 QKC1:QKC3 QAG1:QAG3 PQK1:PQK3 PGO1:PGO3 OWS1:OWS3 OMW1:OMW3 ODA1:ODA3 NTE1:NTE3 NJI1:NJI3 MZM1:MZM3 MPQ1:MPQ3 MFU1:MFU3 LVY1:LVY3 LMC1:LMC3 LCG1:LCG3 KSK1:KSK3 KIO1:KIO3 JYS1:JYS3 JOW1:JOW3 JFA1:JFA3 IVE1:IVE3 ILI1:ILI3 IBM1:IBM3 HRQ1:HRQ3 HHU1:HHU3 GXY1:GXY3 GOC1:GOC3 GEG1:GEG3 FUK1:FUK3 FKO1:FKO3 FAS1:FAS3 EQW1:EQW3 EHA1:EHA3 DXE1:DXE3 DNI1:DNI3 DDM1:DDM3 CTQ1:CTQ3 CJU1:CJU3 BZY1:BZY3 BQC1:BQC3 BGG1:BGG3 AWK1:AWK3 AMO1:AMO3 ACS1:ACS3 SW1:SW3 JA1:JA3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN3 WLR1:WLR3 WBV1:WBV3 VRZ1:VRZ3 VID1:VID3 UYH1:UYH3 UOL1:UOL3 UEP1:UEP3 TUT1:TUT3 TKX1:TKX3 TBB1:TBB3 SRF1:SRF3 SHJ1:SHJ3 RXN1:RXN3 RNR1:RNR3 RDV1:RDV3 QTZ1:QTZ3 QKD1:QKD3 QAH1:QAH3 PQL1:PQL3 PGP1:PGP3 OWT1:OWT3 OMX1:OMX3 ODB1:ODB3 NTF1:NTF3 NJJ1:NJJ3 MZN1:MZN3 MPR1:MPR3 MFV1:MFV3 LVZ1:LVZ3 LMD1:LMD3 LCH1:LCH3 KSL1:KSL3 KIP1:KIP3 JYT1:JYT3 JOX1:JOX3 JFB1:JFB3 IVF1:IVF3 ILJ1:ILJ3 IBN1:IBN3 HRR1:HRR3 HHV1:HHV3 GXZ1:GXZ3 GOD1:GOD3 GEH1:GEH3 FUL1:FUL3 FKP1:FKP3 FAT1:FAT3 EQX1:EQX3 EHB1:EHB3 DXF1:DXF3 DNJ1:DNJ3 DDN1:DDN3 CTR1:CTR3 CJV1:CJV3 BZZ1:BZZ3 BQD1:BQD3 BGH1:BGH3 AWL1:AWL3 AMP1:AMP3 ACT1:ACT3 SX1:SX3 JB1:JB3">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E11">
       <formula1>"P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1666,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1678,17 +2949,20 @@
     <col min="2" max="2" width="21.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="7" customWidth="1"/>
-    <col min="5" max="8" width="9.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="31.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="18" style="7" customWidth="1"/>
-    <col min="12" max="12" width="30.25" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="5" max="5" width="9.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="18" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.25" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1700,181 +2974,190 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="54">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
+    <row r="4" spans="1:13" ht="40.5">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="54">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="54">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="14" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="9" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="60" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM1:WVM3 WLQ1:WLQ3 WBU1:WBU3 VRY1:VRY3 VIC1:VIC3 UYG1:UYG3 UOK1:UOK3 UEO1:UEO3 TUS1:TUS3 TKW1:TKW3 TBA1:TBA3 SRE1:SRE3 SHI1:SHI3 RXM1:RXM3 RNQ1:RNQ3 RDU1:RDU3 QTY1:QTY3 QKC1:QKC3 QAG1:QAG3 PQK1:PQK3 PGO1:PGO3 OWS1:OWS3 OMW1:OMW3 ODA1:ODA3 NTE1:NTE3 NJI1:NJI3 MZM1:MZM3 MPQ1:MPQ3 MFU1:MFU3 LVY1:LVY3 LMC1:LMC3 LCG1:LCG3 KSK1:KSK3 KIO1:KIO3 JYS1:JYS3 JOW1:JOW3 JFA1:JFA3 IVE1:IVE3 ILI1:ILI3 IBM1:IBM3 HRQ1:HRQ3 HHU1:HHU3 GXY1:GXY3 GOC1:GOC3 GEG1:GEG3 FUK1:FUK3 FKO1:FKO3 FAS1:FAS3 EQW1:EQW3 EHA1:EHA3 DXE1:DXE3 DNI1:DNI3 DDM1:DDM3 CTQ1:CTQ3 CJU1:CJU3 BZY1:BZY3 BQC1:BQC3 BGG1:BGG3 AWK1:AWK3 AMO1:AMO3 ACS1:ACS3 SW1:SW3 JA1:JA3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1 WLR1 WBV1 VRZ1 VID1 UYH1 UOL1 UEP1 TUT1 TKX1 TBB1 SRF1 SHJ1 RXN1 RNR1 RDV1 QTZ1 QKD1 QAH1 PQL1 PGP1 OWT1 OMX1 ODB1 NTF1 NJJ1 MZN1 MPR1 MFV1 LVZ1 LMD1 LCH1 KSL1 KIP1 JYT1 JOX1 JFB1 IVF1 ILJ1 IBN1 HRR1 HHV1 GXZ1 GOD1 GEH1 FUL1 FKP1 FAT1 EQX1 EHB1 DXF1 DNJ1 DDN1 CTR1 CJV1 BZZ1 BQD1 BGH1 AWL1 AMP1 ACT1 SX1 JB1">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO3 WLS1:WLS3 WBW1:WBW3 VSA1:VSA3 VIE1:VIE3 UYI1:UYI3 UOM1:UOM3 UEQ1:UEQ3 TUU1:TUU3 TKY1:TKY3 TBC1:TBC3 SRG1:SRG3 SHK1:SHK3 RXO1:RXO3 RNS1:RNS3 RDW1:RDW3 QUA1:QUA3 QKE1:QKE3 QAI1:QAI3 PQM1:PQM3 PGQ1:PGQ3 OWU1:OWU3 OMY1:OMY3 ODC1:ODC3 NTG1:NTG3 NJK1:NJK3 MZO1:MZO3 MPS1:MPS3 MFW1:MFW3 LWA1:LWA3 LME1:LME3 LCI1:LCI3 KSM1:KSM3 KIQ1:KIQ3 JYU1:JYU3 JOY1:JOY3 JFC1:JFC3 IVG1:IVG3 ILK1:ILK3 IBO1:IBO3 HRS1:HRS3 HHW1:HHW3 GYA1:GYA3 GOE1:GOE3 GEI1:GEI3 FUM1:FUM3 FKQ1:FKQ3 FAU1:FAU3 EQY1:EQY3 EHC1:EHC3 DXG1:DXG3 DNK1:DNK3 DDO1:DDO3 CTS1:CTS3 CJW1:CJW3 CAA1:CAA3 BQE1:BQE3 BGI1:BGI3 AWM1:AWM3 AMQ1:AMQ3 ACU1:ACU3 SY1:SY3 JC1:JC3 G1:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H4">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN3 WLR1:WLR3 WBV1:WBV3 VRZ1:VRZ3 VID1:VID3 UYH1:UYH3 UOL1:UOL3 UEP1:UEP3 TUT1:TUT3 TKX1:TKX3 TBB1:TBB3 SRF1:SRF3 SHJ1:SHJ3 RXN1:RXN3 RNR1:RNR3 RDV1:RDV3 QTZ1:QTZ3 QKD1:QKD3 QAH1:QAH3 PQL1:PQL3 PGP1:PGP3 OWT1:OWT3 OMX1:OMX3 ODB1:ODB3 NTF1:NTF3 NJJ1:NJJ3 MZN1:MZN3 MPR1:MPR3 MFV1:MFV3 LVZ1:LVZ3 LMD1:LMD3 LCH1:LCH3 KSL1:KSL3 KIP1:KIP3 JYT1:JYT3 JOX1:JOX3 JFB1:JFB3 IVF1:IVF3 ILJ1:ILJ3 IBN1:IBN3 HRR1:HRR3 HHV1:HHV3 GXZ1:GXZ3 GOD1:GOD3 GEH1:GEH3 FUL1:FUL3 FKP1:FKP3 FAT1:FAT3 EQX1:EQX3 EHB1:EHB3 DXF1:DXF3 DNJ1:DNJ3 DDN1:DDN3 CTR1:CTR3 CJV1:CJV3 BZZ1:BZZ3 BQD1:BQD3 BGH1:BGH3 AWL1:AWL3 AMP1:AMP3 ACT1:ACT3 SX1:SX3 JB1:JB3 F1:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G4">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="商品测试" sheetId="5" r:id="rId1"/>
+    <sheet name="图片上传" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -586,874 +586,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="145">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <font>
         <b/>
@@ -2369,7 +1502,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2764,155 +1897,155 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="144" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="36" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="37" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="38" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="139" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="31" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="32" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="22" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="109" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="43" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="44" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="45" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="94" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2940,7 +2073,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3100,53 +2233,53 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>用例标题</t>
   </si>
@@ -115,31 +115,6 @@
   </si>
   <si>
     <t>{"$..msg":"参数错误", "$..status":400 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +257,150 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>根据 ID 查询编辑商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>{
+  "goods_name":"商品_${fk.random_int(min=1000,max=9999)}",
+"goods_cat": "1,2,3",
+  "goods_price":20,
+  "goods_number":30,
+  "goods_weight":40,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据 ID 查询商品删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${token}!=None;${goods_id}!=None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$..msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","$..status":200}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file": './config/1.jpg' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$..msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","$..status":200}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>上传多个图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file": ['./config/1.jpg','./config/3.jpg'],}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from sp_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM sp_goods WHERE goods_id = ${goods_id};SELECT * FROM sp_goods WHERE goods_id = ${goods_id}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$..msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","$..status":200}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token": "$...token", "userId": "$...id"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM sp_goods WHERE goods_id = ${goods_id}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{"$..msg":"</t>
     </r>
@@ -307,155 +426,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>根据 ID 查询编辑商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>{
-  "goods_name":"商品_${fk.random_int(min=1000,max=9999)}",
-"goods_cat": "1,2,3",
-  "goods_price":20,
-  "goods_number":30,
-  "goods_weight":40,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"goods_id": "$...goods_id", "userId": "$...id"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据 ID 查询商品删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${token}!=None;${goods_id}!=None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>上传图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file": './config/1.jpg' }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上传成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>上传多个图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file": ['./config/1.jpg','./config/3.jpg'],}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from sp_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from sp_user where user_id=${userId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM sp_goods WHERE goods_id = ${goods_id};SELECT * FROM sp_goods WHERE goods_id = ${goods_id}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"token": "$...token", "userId": "$...id"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM sp_goods WHERE goods_id = ${goods_id}
-</t>
+    <t>select * from sp_manager where mg_id=${userId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,8 +451,33 @@
         <scheme val="minor"/>
       </rPr>
       <t>","$..status":200,
-"$..sql_0_data.goods_id":"${goods_id}"
+"$..sql_0_data.goods_id":"$...goods_id"
 }</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"$..msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","$..status":200,"$...username":"$..sql_0_data.mg_name"}</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -489,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1213,7 +1209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1502,7 +1498,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1524,7 +1520,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1536,10 +1532,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1590,7 +1586,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
@@ -1616,16 +1612,16 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="54">
@@ -1633,19 +1629,19 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1654,13 +1650,13 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27">
@@ -1668,19 +1664,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1689,10 +1685,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="220.5" customHeight="1">
@@ -1700,19 +1696,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1721,36 +1717,36 @@
         <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1759,95 +1755,95 @@
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="135">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1856,30 +1852,30 @@
         <v>17</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.5">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -1888,10 +1884,10 @@
         <v>17</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2107,10 +2103,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2136,22 +2132,22 @@
     </row>
     <row r="2" spans="1:13" ht="27">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -2160,30 +2156,30 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -2192,30 +2188,30 @@
         <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -2224,10 +2220,10 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>用例标题</t>
   </si>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"$..msg":"参数错误", "$..status":400 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>c6</t>
   </si>
   <si>
@@ -135,10 +131,6 @@
   </si>
   <si>
     <t>是否跳过(支持条件跳过)</t>
-  </si>
-  <si>
-    <t>${token}!=None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
@@ -161,13 +153,6 @@
   </si>
   <si>
     <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "pagenum": "1",
-    "pagesize": "10"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${token}!=None;${goods_id}!=None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,10 +206,6 @@
   </si>
   <si>
     <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${token}!=None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,10 +252,6 @@
   </si>
   <si>
     <t>根据 ID 查询商品删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${token}!=None;${goods_id}!=None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,6 +430,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>{"$..msg":"参数错误", "$..status":400 }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{"$..msg":"</t>
     </r>
@@ -481,11 +458,32 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+    "pagenum": "1",
+    "pagesize": "10"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"${token}"!=None</t>
+  </si>
+  <si>
+    <t>"${token}"!=None;"${goods_id}"!=None</t>
+  </si>
+  <si>
+    <t>"a"=='b'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"${token}"!=None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1209,7 +1207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1497,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1508,7 +1506,7 @@
     <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="7" customWidth="1"/>
     <col min="7" max="8" width="9.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="23.125" style="7" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="7" customWidth="1"/>
@@ -1520,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1532,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1586,10 +1584,10 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="54">
@@ -1612,16 +1610,16 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="54">
@@ -1629,19 +1627,19 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1650,13 +1648,13 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27">
@@ -1664,19 +1662,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1685,10 +1683,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="220.5" customHeight="1">
@@ -1696,19 +1694,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1717,36 +1715,36 @@
         <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1755,95 +1753,95 @@
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="135">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1852,30 +1850,30 @@
         <v>17</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.5">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -1884,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2067,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2091,7 +2089,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2103,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2130,56 +2128,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27">
+    <row r="2" spans="1:13" ht="40.5">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -2188,30 +2183,30 @@
         <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -2220,49 +2215,49 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"P5"</formula>
     </cfRule>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="商品测试" sheetId="5" r:id="rId1"/>
-    <sheet name="图片上传" sheetId="2" r:id="rId2"/>
+    <sheet name="1-登录" sheetId="7" r:id="rId1"/>
+    <sheet name="2-商品测试" sheetId="5" r:id="rId2"/>
+    <sheet name="3-图片上传" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>用例标题</t>
   </si>
@@ -124,12 +125,6 @@
     <t>根据 ID 查询商品</t>
   </si>
   <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
     <t>是否跳过(支持条件跳过)</t>
   </si>
   <si>
@@ -139,13 +134,6 @@
   <si>
     <t>用例等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "username": "admin",
-    "password": "123456"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"Authorization": "${token}"}</t>
@@ -251,35 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据 ID 查询商品删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>c8</t>
   </si>
   <si>
@@ -466,18 +425,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"${token}"!=None</t>
-  </si>
-  <si>
-    <t>"${token}"!=None;"${goods_id}"!=None</t>
-  </si>
-  <si>
-    <t>"a"=='b'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"${token}"!=None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>"${token}"!=""</t>
+  </si>
+  <si>
+    <t>"${token}"!=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"${token}"!=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"${token}"!="";"${goods_id}"!=""</t>
+  </si>
+  <si>
+    <t>{
+    "username": "admin",
+    "password": "123456"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,211 +546,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFD84472"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC4E59F"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B853"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <b/>
@@ -1493,9 +1255,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="54">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="54">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1:E2">
+      <formula1>"P1,P2,P3,P4,P5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN2 WLR1:WLR2 WBV1:WBV2 VRZ1:VRZ2 VID1:VID2 UYH1:UYH2 UOL1:UOL2 UEP1:UEP2 TUT1:TUT2 TKX1:TKX2 TBB1:TBB2 SRF1:SRF2 SHJ1:SHJ2 RXN1:RXN2 RNR1:RNR2 RDV1:RDV2 QTZ1:QTZ2 QKD1:QKD2 QAH1:QAH2 PQL1:PQL2 PGP1:PGP2 OWT1:OWT2 OMX1:OMX2 ODB1:ODB2 NTF1:NTF2 NJJ1:NJJ2 MZN1:MZN2 MPR1:MPR2 MFV1:MFV2 LVZ1:LVZ2 LMD1:LMD2 LCH1:LCH2 KSL1:KSL2 KIP1:KIP2 JYT1:JYT2 JOX1:JOX2 JFB1:JFB2 IVF1:IVF2 ILJ1:ILJ2 IBN1:IBN2 HRR1:HRR2 HHV1:HHV2 GXZ1:GXZ2 GOD1:GOD2 GEH1:GEH2 FUL1:FUL2 FKP1:FKP2 FAT1:FAT2 EQX1:EQX2 EHB1:EHB2 DXF1:DXF2 DNJ1:DNJ2 DDN1:DDN2 CTR1:CTR2 CJV1:CJV2 BZZ1:BZZ2 BQD1:BQD2 BGH1:BGH2 AWL1:AWL2 AMP1:AMP2 ACT1:ACT2 SX1:SX2 JB1:JB2">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1:WVP2 WLT1:WLT2 WBX1:WBX2 VSB1:VSB2 VIF1:VIF2 UYJ1:UYJ2 UON1:UON2 UER1:UER2 TUV1:TUV2 TKZ1:TKZ2 TBD1:TBD2 SRH1:SRH2 SHL1:SHL2 RXP1:RXP2 RNT1:RNT2 RDX1:RDX2 QUB1:QUB2 QKF1:QKF2 QAJ1:QAJ2 PQN1:PQN2 PGR1:PGR2 OWV1:OWV2 OMZ1:OMZ2 ODD1:ODD2 NTH1:NTH2 NJL1:NJL2 MZP1:MZP2 MPT1:MPT2 MFX1:MFX2 LWB1:LWB2 LMF1:LMF2 LCJ1:LCJ2 KSN1:KSN2 KIR1:KIR2 JYV1:JYV2 JOZ1:JOZ2 JFD1:JFD2 IVH1:IVH2 ILL1:ILL2 IBP1:IBP2 HRT1:HRT2 HHX1:HHX2 GYB1:GYB2 GOF1:GOF2 GEJ1:GEJ2 FUN1:FUN2 FKR1:FKR2 FAV1:FAV2 EQZ1:EQZ2 EHD1:EHD2 DXH1:DXH2 DNL1:DNL2 DDP1:DDP2 CTT1:CTT2 CJX1:CJX2 CAB1:CAB2 BQF1:BQF2 BGJ1:BGJ2 AWN1:AWN2 AMR1:AMR2 ACV1:ACV2 SZ1:SZ2 JD1:JD2 H1:H2">
+      <formula1>"params,data,json"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO2 WLS1:WLS2 WBW1:WBW2 VSA1:VSA2 VIE1:VIE2 UYI1:UYI2 UOM1:UOM2 UEQ1:UEQ2 TUU1:TUU2 TKY1:TKY2 TBC1:TBC2 SRG1:SRG2 SHK1:SHK2 RXO1:RXO2 RNS1:RNS2 RDW1:RDW2 QUA1:QUA2 QKE1:QKE2 QAI1:QAI2 PQM1:PQM2 PGQ1:PGQ2 OWU1:OWU2 OMY1:OMY2 ODC1:ODC2 NTG1:NTG2 NJK1:NJK2 MZO1:MZO2 MPS1:MPS2 MFW1:MFW2 LWA1:LWA2 LME1:LME2 LCI1:LCI2 KSM1:KSM2 KIQ1:KIQ2 JYU1:JYU2 JOY1:JOY2 JFC1:JFC2 IVG1:IVG2 ILK1:ILK2 IBO1:IBO2 HRS1:HRS2 HHW1:HHW2 GYA1:GYA2 GOE1:GOE2 GEI1:GEI2 FUM1:FUM2 FKQ1:FKQ2 FAU1:FAU2 EQY1:EQY2 EHC1:EHC2 DXG1:DXG2 DNK1:DNK2 DDO1:DDO2 CTS1:CTS2 CJW1:CJW2 CAA1:CAA2 BQE1:BQE2 BGI1:BGI2 AWM1:AWM2 AMQ1:AMQ2 ACU1:ACU2 SY1:SY2 JC1:JC2 G1:G2">
+      <formula1>"get,post,put,delete,head,options,patch"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1518,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1530,10 +1421,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1557,124 +1448,129 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="54">
+    <row r="2" spans="1:13" ht="54">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="b">
-        <v>0</v>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="220.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="J4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="54">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="54">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1683,377 +1579,129 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="220.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="6" spans="1:13" ht="135">
+      <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="27">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="135">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="40.5">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>"P5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>"P4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>"P3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+      <formula>"P2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"P1"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="59" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="54" priority="31" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="32" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="22" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO3 WLS1:WLS3 WBW1:WBW3 VSA1:VSA3 VIE1:VIE3 UYI1:UYI3 UOM1:UOM3 UEQ1:UEQ3 TUU1:TUU3 TKY1:TKY3 TBC1:TBC3 SRG1:SRG3 SHK1:SHK3 RXO1:RXO3 RNS1:RNS3 RDW1:RDW3 QUA1:QUA3 QKE1:QKE3 QAI1:QAI3 PQM1:PQM3 PGQ1:PGQ3 OWU1:OWU3 OMY1:OMY3 ODC1:ODC3 NTG1:NTG3 NJK1:NJK3 MZO1:MZO3 MPS1:MPS3 MFW1:MFW3 LWA1:LWA3 LME1:LME3 LCI1:LCI3 KSM1:KSM3 KIQ1:KIQ3 JYU1:JYU3 JOY1:JOY3 JFC1:JFC3 IVG1:IVG3 ILK1:ILK3 IBO1:IBO3 HRS1:HRS3 HHW1:HHW3 GYA1:GYA3 GOE1:GOE3 GEI1:GEI3 FUM1:FUM3 FKQ1:FKQ3 FAU1:FAU3 EQY1:EQY3 EHC1:EHC3 DXG1:DXG3 DNK1:DNK3 DDO1:DDO3 CTS1:CTS3 CJW1:CJW3 CAA1:CAA3 BQE1:BQE3 BGI1:BGI3 AWM1:AWM3 AMQ1:AMQ3 ACU1:ACU3 SY1:SY3 JC1:JC3 G1:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G6">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1:WVP3 WLT1:WLT3 WBX1:WBX3 VSB1:VSB3 VIF1:VIF3 UYJ1:UYJ3 UON1:UON3 UER1:UER3 TUV1:TUV3 TKZ1:TKZ3 TBD1:TBD3 SRH1:SRH3 SHL1:SHL3 RXP1:RXP3 RNT1:RNT3 RDX1:RDX3 QUB1:QUB3 QKF1:QKF3 QAJ1:QAJ3 PQN1:PQN3 PGR1:PGR3 OWV1:OWV3 OMZ1:OMZ3 ODD1:ODD3 NTH1:NTH3 NJL1:NJL3 MZP1:MZP3 MPT1:MPT3 MFX1:MFX3 LWB1:LWB3 LMF1:LMF3 LCJ1:LCJ3 KSN1:KSN3 KIR1:KIR3 JYV1:JYV3 JOZ1:JOZ3 JFD1:JFD3 IVH1:IVH3 ILL1:ILL3 IBP1:IBP3 HRT1:HRT3 HHX1:HHX3 GYB1:GYB3 GOF1:GOF3 GEJ1:GEJ3 FUN1:FUN3 FKR1:FKR3 FAV1:FAV3 EQZ1:EQZ3 EHD1:EHD3 DXH1:DXH3 DNL1:DNL3 DDP1:DDP3 CTT1:CTT3 CJX1:CJX3 CAB1:CAB3 BQF1:BQF3 BGJ1:BGJ3 AWN1:AWN3 AMR1:AMR3 ACV1:ACV3 SZ1:SZ3 JD1:JD3 H1:H11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H6">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN3 WLR1:WLR3 WBV1:WBV3 VRZ1:VRZ3 VID1:VID3 UYH1:UYH3 UOL1:UOL3 UEP1:UEP3 TUT1:TUT3 TKX1:TKX3 TBB1:TBB3 SRF1:SRF3 SHJ1:SHJ3 RXN1:RXN3 RNR1:RNR3 RDV1:RDV3 QTZ1:QTZ3 QKD1:QKD3 QAH1:QAH3 PQL1:PQL3 PGP1:PGP3 OWT1:OWT3 OMX1:OMX3 ODB1:ODB3 NTF1:NTF3 NJJ1:NJJ3 MZN1:MZN3 MPR1:MPR3 MFV1:MFV3 LVZ1:LVZ3 LMD1:LMD3 LCH1:LCH3 KSL1:KSL3 KIP1:KIP3 JYT1:JYT3 JOX1:JOX3 JFB1:JFB3 IVF1:IVF3 ILJ1:ILJ3 IBN1:IBN3 HRR1:HRR3 HHV1:HHV3 GXZ1:GXZ3 GOD1:GOD3 GEH1:GEH3 FUL1:FUL3 FKP1:FKP3 FAT1:FAT3 EQX1:EQX3 EHB1:EHB3 DXF1:DXF3 DNJ1:DNJ3 DDN1:DDN3 CTR1:CTR3 CJV1:CJV3 BZZ1:BZZ3 BQD1:BQD3 BGH1:BGH3 AWL1:AWL3 AMP1:AMP3 ACT1:ACT3 SX1:SX3 JB1:JB3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1 WLR1 WBV1 VRZ1 VID1 UYH1 UOL1 UEP1 TUT1 TKX1 TBB1 SRF1 SHJ1 RXN1 RNR1 RDV1 QTZ1 QKD1 QAH1 PQL1 PGP1 OWT1 OMX1 ODB1 NTF1 NJJ1 MZN1 MPR1 MFV1 LVZ1 LMD1 LCH1 KSL1 KIP1 JYT1 JOX1 JFB1 IVF1 ILJ1 IBN1 HRR1 HHV1 GXZ1 GOD1 GEH1 FUL1 FKP1 FAT1 EQX1 EHB1 DXF1 DNJ1 DDN1 CTR1 CJV1 BZZ1 BQD1 BGH1 AWL1 AMP1 ACT1 SX1 JB1">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E11">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2062,12 +1710,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2089,7 +1737,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2101,10 +1749,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2128,36 +1776,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="40.5">
+    <row r="2" spans="1:13" ht="27">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27">
+    <row r="3" spans="1:13" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2165,16 +1816,16 @@
         <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -2183,94 +1834,45 @@
         <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="40.5">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
-      <formula>"P1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"P5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"P4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"P3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"P2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2278,13 +1880,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1 WLR1 WBV1 VRZ1 VID1 UYH1 UOL1 UEP1 TUT1 TKX1 TBB1 SRF1 SHJ1 RXN1 RNR1 RDV1 QTZ1 QKD1 QAH1 PQL1 PGP1 OWT1 OMX1 ODB1 NTF1 NJJ1 MZN1 MPR1 MFV1 LVZ1 LMD1 LCH1 KSL1 KIP1 JYT1 JOX1 JFB1 IVF1 ILJ1 IBN1 HRR1 HHV1 GXZ1 GOD1 GEH1 FUL1 FKP1 FAT1 EQX1 EHB1 DXF1 DNJ1 DDN1 CTR1 CJV1 BZZ1 BQD1 BGH1 AWL1 AMP1 ACT1 SX1 JB1">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H3">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G3">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>"P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>用例标题</t>
   </si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1255,126 +1255,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="11" max="11" width="26.25" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="13" max="13" width="45.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="54">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="54">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1:E2">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>"P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN2 WLR1:WLR2 WBV1:WBV2 VRZ1:VRZ2 VID1:VID2 UYH1:UYH2 UOL1:UOL2 UEP1:UEP2 TUT1:TUT2 TKX1:TKX2 TBB1:TBB2 SRF1:SRF2 SHJ1:SHJ2 RXN1:RXN2 RNR1:RNR2 RDV1:RDV2 QTZ1:QTZ2 QKD1:QKD2 QAH1:QAH2 PQL1:PQL2 PGP1:PGP2 OWT1:OWT2 OMX1:OMX2 ODB1:ODB2 NTF1:NTF2 NJJ1:NJJ2 MZN1:MZN2 MPR1:MPR2 MFV1:MFV2 LVZ1:LVZ2 LMD1:LMD2 LCH1:LCH2 KSL1:KSL2 KIP1:KIP2 JYT1:JYT2 JOX1:JOX2 JFB1:JFB2 IVF1:IVF2 ILJ1:ILJ2 IBN1:IBN2 HRR1:HRR2 HHV1:HHV2 GXZ1:GXZ2 GOD1:GOD2 GEH1:GEH2 FUL1:FUL2 FKP1:FKP2 FAT1:FAT2 EQX1:EQX2 EHB1:EHB2 DXF1:DXF2 DNJ1:DNJ2 DDN1:DDN2 CTR1:CTR2 CJV1:CJV2 BZZ1:BZZ2 BQD1:BQD2 BGH1:BGH2 AWL1:AWL2 AMP1:AMP2 ACT1:ACT2 SX1:SX2 JB1:JB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN3 WLR1:WLR3 WBV1:WBV3 VRZ1:VRZ3 VID1:VID3 UYH1:UYH3 UOL1:UOL3 UEP1:UEP3 TUT1:TUT3 TKX1:TKX3 TBB1:TBB3 SRF1:SRF3 SHJ1:SHJ3 RXN1:RXN3 RNR1:RNR3 RDV1:RDV3 QTZ1:QTZ3 QKD1:QKD3 QAH1:QAH3 PQL1:PQL3 PGP1:PGP3 OWT1:OWT3 OMX1:OMX3 ODB1:ODB3 NTF1:NTF3 NJJ1:NJJ3 MZN1:MZN3 MPR1:MPR3 MFV1:MFV3 LVZ1:LVZ3 LMD1:LMD3 LCH1:LCH3 KSL1:KSL3 KIP1:KIP3 JYT1:JYT3 JOX1:JOX3 JFB1:JFB3 IVF1:IVF3 ILJ1:ILJ3 IBN1:IBN3 HRR1:HRR3 HHV1:HHV3 GXZ1:GXZ3 GOD1:GOD3 GEH1:GEH3 FUL1:FUL3 FKP1:FKP3 FAT1:FAT3 EQX1:EQX3 EHB1:EHB3 DXF1:DXF3 DNJ1:DNJ3 DDN1:DDN3 CTR1:CTR3 CJV1:CJV3 BZZ1:BZZ3 BQD1:BQD3 BGH1:BGH3 AWL1:AWL3 AMP1:AMP3 ACT1:ACT3 SX1:SX3 JB1:JB3">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1:WVP2 WLT1:WLT2 WBX1:WBX2 VSB1:VSB2 VIF1:VIF2 UYJ1:UYJ2 UON1:UON2 UER1:UER2 TUV1:TUV2 TKZ1:TKZ2 TBD1:TBD2 SRH1:SRH2 SHL1:SHL2 RXP1:RXP2 RNT1:RNT2 RDX1:RDX2 QUB1:QUB2 QKF1:QKF2 QAJ1:QAJ2 PQN1:PQN2 PGR1:PGR2 OWV1:OWV2 OMZ1:OMZ2 ODD1:ODD2 NTH1:NTH2 NJL1:NJL2 MZP1:MZP2 MPT1:MPT2 MFX1:MFX2 LWB1:LWB2 LMF1:LMF2 LCJ1:LCJ2 KSN1:KSN2 KIR1:KIR2 JYV1:JYV2 JOZ1:JOZ2 JFD1:JFD2 IVH1:IVH2 ILL1:ILL2 IBP1:IBP2 HRT1:HRT2 HHX1:HHX2 GYB1:GYB2 GOF1:GOF2 GEJ1:GEJ2 FUN1:FUN2 FKR1:FKR2 FAV1:FAV2 EQZ1:EQZ2 EHD1:EHD2 DXH1:DXH2 DNL1:DNL2 DDP1:DDP2 CTT1:CTT2 CJX1:CJX2 CAB1:CAB2 BQF1:BQF2 BGJ1:BGJ2 AWN1:AWN2 AMR1:AMR2 ACV1:ACV2 SZ1:SZ2 JD1:JD2 H1:H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1:WVP3 WLT1:WLT3 WBX1:WBX3 VSB1:VSB3 VIF1:VIF3 UYJ1:UYJ3 UON1:UON3 UER1:UER3 TUV1:TUV3 TKZ1:TKZ3 TBD1:TBD3 SRH1:SRH3 SHL1:SHL3 RXP1:RXP3 RNT1:RNT3 RDX1:RDX3 QUB1:QUB3 QKF1:QKF3 QAJ1:QAJ3 PQN1:PQN3 PGR1:PGR3 OWV1:OWV3 OMZ1:OMZ3 ODD1:ODD3 NTH1:NTH3 NJL1:NJL3 MZP1:MZP3 MPT1:MPT3 MFX1:MFX3 LWB1:LWB3 LMF1:LMF3 LCJ1:LCJ3 KSN1:KSN3 KIR1:KIR3 JYV1:JYV3 JOZ1:JOZ3 JFD1:JFD3 IVH1:IVH3 ILL1:ILL3 IBP1:IBP3 HRT1:HRT3 HHX1:HHX3 GYB1:GYB3 GOF1:GOF3 GEJ1:GEJ3 FUN1:FUN3 FKR1:FKR3 FAV1:FAV3 EQZ1:EQZ3 EHD1:EHD3 DXH1:DXH3 DNL1:DNL3 DDP1:DDP3 CTT1:CTT3 CJX1:CJX3 CAB1:CAB3 BQF1:BQF3 BGJ1:BGJ3 AWN1:AWN3 AMR1:AMR3 ACV1:ACV3 SZ1:SZ3 JD1:JD3 H1:H3">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO2 WLS1:WLS2 WBW1:WBW2 VSA1:VSA2 VIE1:VIE2 UYI1:UYI2 UOM1:UOM2 UEQ1:UEQ2 TUU1:TUU2 TKY1:TKY2 TBC1:TBC2 SRG1:SRG2 SHK1:SHK2 RXO1:RXO2 RNS1:RNS2 RDW1:RDW2 QUA1:QUA2 QKE1:QKE2 QAI1:QAI2 PQM1:PQM2 PGQ1:PGQ2 OWU1:OWU2 OMY1:OMY2 ODC1:ODC2 NTG1:NTG2 NJK1:NJK2 MZO1:MZO2 MPS1:MPS2 MFW1:MFW2 LWA1:LWA2 LME1:LME2 LCI1:LCI2 KSM1:KSM2 KIQ1:KIQ2 JYU1:JYU2 JOY1:JOY2 JFC1:JFC2 IVG1:IVG2 ILK1:ILK2 IBO1:IBO2 HRS1:HRS2 HHW1:HHW2 GYA1:GYA2 GOE1:GOE2 GEI1:GEI2 FUM1:FUM2 FKQ1:FKQ2 FAU1:FAU2 EQY1:EQY2 EHC1:EHC2 DXG1:DXG2 DNK1:DNK2 DDO1:DDO2 CTS1:CTS2 CJW1:CJW2 CAA1:CAA2 BQE1:BQE2 BGI1:BGI2 AWM1:AWM2 AMQ1:AMQ2 ACU1:ACU2 SY1:SY2 JC1:JC2 G1:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO3 WLS1:WLS3 WBW1:WBW3 VSA1:VSA3 VIE1:VIE3 UYI1:UYI3 UOM1:UOM3 UEQ1:UEQ3 TUU1:TUU3 TKY1:TKY3 TBC1:TBC3 SRG1:SRG3 SHK1:SHK3 RXO1:RXO3 RNS1:RNS3 RDW1:RDW3 QUA1:QUA3 QKE1:QKE3 QAI1:QAI3 PQM1:PQM3 PGQ1:PGQ3 OWU1:OWU3 OMY1:OMY3 ODC1:ODC3 NTG1:NTG3 NJK1:NJK3 MZO1:MZO3 MPS1:MPS3 MFW1:MFW3 LWA1:LWA3 LME1:LME3 LCI1:LCI3 KSM1:KSM3 KIQ1:KIQ3 JYU1:JYU3 JOY1:JOY3 JFC1:JFC3 IVG1:IVG3 ILK1:ILK3 IBO1:IBO3 HRS1:HRS3 HHW1:HHW3 GYA1:GYA3 GOE1:GOE3 GEI1:GEI3 FUM1:FUM3 FKQ1:FKQ3 FAU1:FAU3 EQY1:EQY3 EHC1:EHC3 DXG1:DXG3 DNK1:DNK3 DDO1:DDO3 CTS1:CTS3 CJW1:CJW3 CAA1:CAA3 BQE1:BQE3 BGI1:BGI3 AWM1:AWM3 AMQ1:AMQ3 ACU1:ACU3 SY1:SY3 JC1:JC3 G1:G3">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1395,11 +1446,11 @@
     <col min="1" max="1" width="6.875" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="7" customWidth="1"/>
     <col min="7" max="8" width="9.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="7" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="7" customWidth="1"/>
     <col min="11" max="11" width="21.125" style="7" customWidth="1"/>
     <col min="12" max="12" width="18" style="7" customWidth="1"/>
@@ -1624,70 +1675,70 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E6">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1715,7 +1766,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1843,36 +1894,36 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"P5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"P4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"P2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"P1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -105,13 +105,6 @@
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "username": "admin",
-    "password": ""
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -441,7 +434,16 @@
   <si>
     <t>{
     "username": "admin",
-    "password": "123456"
+    "password": "",
+"uuid": "${uuid4()}"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "username": "admin",
+    "password": "123456",
+"uuid": "${uuid4()}"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -449,7 +451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -969,7 +971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1258,7 +1260,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1275,7 +1277,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1287,10 +1289,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1314,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="58.5" customHeight="1">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="94.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,17 +1339,17 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="65.25" customHeight="1">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="102.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1370,13 +1372,13 @@
         <v>71</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1472,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1504,19 +1506,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1525,13 +1527,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27">
@@ -1539,19 +1541,19 @@
         <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1560,10 +1562,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="220.5" customHeight="1">
@@ -1571,19 +1573,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1592,36 +1594,36 @@
         <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1630,46 +1632,46 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="135">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1790,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1800,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1829,22 +1831,22 @@
     </row>
     <row r="2" spans="1:13" ht="27">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -1853,30 +1855,30 @@
         <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.5">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -1885,10 +1887,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-登录" sheetId="7" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3DEB6-77C7-48C3-9CBE-75A205F4852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="855" yWindow="360" windowWidth="27345" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-登录" sheetId="7" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>用例标题</t>
   </si>
@@ -138,31 +139,6 @@
   </si>
   <si>
     <t>{"goods_id": "$...goods.[2].goods_id"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -247,31 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上传成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>c9</t>
   </si>
   <si>
@@ -292,31 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{"token": "$...token", "userId": "$...id"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -326,89 +252,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建商品成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":201}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>select * from sp_manager where mg_id=${userId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建商品成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200,
-"$..sql_0_data.goods_id":"$...goods_id"
-}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$..msg":"参数错误", "$..status":400 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"$..msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","$..status":200,"$...username":"$..sql_0_data.mg_name"}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -447,11 +292,36 @@
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>[["参数错误","==","$..msg","str"],[400,"==","$..status","int"]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["登录成功","==","$..msg","str"],[200,"==","$..status","int"]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["获取成功","==","$..msg","str"],[200,"==","$..status","int"]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["创建商品成功","==","$..msg","str"],[201,"==","$..status","int"]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[["创建商品成功","==","$..msg","str"],[200,"==","$..status","int"],["$...goods_id","==","$..sql_0_data.goods_id","int"]]
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["上传成功","==","$..msg","str"],[200,"==","$..status","int"]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -520,30 +390,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1046,6 +910,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1081,6 +962,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1256,11 +1154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1275,7 +1173,7 @@
     <col min="13" max="13" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1189,7 @@
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1316,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="94.5" customHeight="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="94.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1326,30 +1224,29 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="b">
+      <c r="F2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>63</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="102.75" customHeight="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="102.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1359,26 +1256,26 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1418,16 +1315,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN3 WLR1:WLR3 WBV1:WBV3 VRZ1:VRZ3 VID1:VID3 UYH1:UYH3 UOL1:UOL3 UEP1:UEP3 TUT1:TUT3 TKX1:TKX3 TBB1:TBB3 SRF1:SRF3 SHJ1:SHJ3 RXN1:RXN3 RNR1:RNR3 RDV1:RDV3 QTZ1:QTZ3 QKD1:QKD3 QAH1:QAH3 PQL1:PQL3 PGP1:PGP3 OWT1:OWT3 OMX1:OMX3 ODB1:ODB3 NTF1:NTF3 NJJ1:NJJ3 MZN1:MZN3 MPR1:MPR3 MFV1:MFV3 LVZ1:LVZ3 LMD1:LMD3 LCH1:LCH3 KSL1:KSL3 KIP1:KIP3 JYT1:JYT3 JOX1:JOX3 JFB1:JFB3 IVF1:IVF3 ILJ1:ILJ3 IBN1:IBN3 HRR1:HRR3 HHV1:HHV3 GXZ1:GXZ3 GOD1:GOD3 GEH1:GEH3 FUL1:FUL3 FKP1:FKP3 FAT1:FAT3 EQX1:EQX3 EHB1:EHB3 DXF1:DXF3 DNJ1:DNJ3 DDN1:DDN3 CTR1:CTR3 CJV1:CJV3 BZZ1:BZZ3 BQD1:BQD3 BGH1:BGH3 AWL1:AWL3 AMP1:AMP3 ACT1:ACT3 SX1:SX3 JB1:JB3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1:WVN3 WLR1:WLR3 WBV1:WBV3 VRZ1:VRZ3 VID1:VID3 UYH1:UYH3 UOL1:UOL3 UEP1:UEP3 TUT1:TUT3 TKX1:TKX3 TBB1:TBB3 SRF1:SRF3 SHJ1:SHJ3 RXN1:RXN3 RNR1:RNR3 RDV1:RDV3 QTZ1:QTZ3 QKD1:QKD3 QAH1:QAH3 PQL1:PQL3 PGP1:PGP3 OWT1:OWT3 OMX1:OMX3 ODB1:ODB3 NTF1:NTF3 NJJ1:NJJ3 MZN1:MZN3 MPR1:MPR3 MFV1:MFV3 LVZ1:LVZ3 LMD1:LMD3 LCH1:LCH3 KSL1:KSL3 KIP1:KIP3 JYT1:JYT3 JOX1:JOX3 JFB1:JFB3 IVF1:IVF3 ILJ1:ILJ3 IBN1:IBN3 HRR1:HRR3 HHV1:HHV3 GXZ1:GXZ3 GOD1:GOD3 GEH1:GEH3 FUL1:FUL3 FKP1:FKP3 FAT1:FAT3 EQX1:EQX3 EHB1:EHB3 DXF1:DXF3 DNJ1:DNJ3 DDN1:DDN3 CTR1:CTR3 CJV1:CJV3 BZZ1:BZZ3 BQD1:BQD3 BGH1:BGH3 AWL1:AWL3 AMP1:AMP3 ACT1:ACT3 SX1:SX3 JB1:JB3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1:WVP3 WLT1:WLT3 WBX1:WBX3 VSB1:VSB3 VIF1:VIF3 UYJ1:UYJ3 UON1:UON3 UER1:UER3 TUV1:TUV3 TKZ1:TKZ3 TBD1:TBD3 SRH1:SRH3 SHL1:SHL3 RXP1:RXP3 RNT1:RNT3 RDX1:RDX3 QUB1:QUB3 QKF1:QKF3 QAJ1:QAJ3 PQN1:PQN3 PGR1:PGR3 OWV1:OWV3 OMZ1:OMZ3 ODD1:ODD3 NTH1:NTH3 NJL1:NJL3 MZP1:MZP3 MPT1:MPT3 MFX1:MFX3 LWB1:LWB3 LMF1:LMF3 LCJ1:LCJ3 KSN1:KSN3 KIR1:KIR3 JYV1:JYV3 JOZ1:JOZ3 JFD1:JFD3 IVH1:IVH3 ILL1:ILL3 IBP1:IBP3 HRT1:HRT3 HHX1:HHX3 GYB1:GYB3 GOF1:GOF3 GEJ1:GEJ3 FUN1:FUN3 FKR1:FKR3 FAV1:FAV3 EQZ1:EQZ3 EHD1:EHD3 DXH1:DXH3 DNL1:DNL3 DDP1:DDP3 CTT1:CTT3 CJX1:CJX3 CAB1:CAB3 BQF1:BQF3 BGJ1:BGJ3 AWN1:AWN3 AMR1:AMR3 ACV1:ACV3 SZ1:SZ3 JD1:JD3 H1:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1:WVP3 WLT1:WLT3 WBX1:WBX3 VSB1:VSB3 VIF1:VIF3 UYJ1:UYJ3 UON1:UON3 UER1:UER3 TUV1:TUV3 TKZ1:TKZ3 TBD1:TBD3 SRH1:SRH3 SHL1:SHL3 RXP1:RXP3 RNT1:RNT3 RDX1:RDX3 QUB1:QUB3 QKF1:QKF3 QAJ1:QAJ3 PQN1:PQN3 PGR1:PGR3 OWV1:OWV3 OMZ1:OMZ3 ODD1:ODD3 NTH1:NTH3 NJL1:NJL3 MZP1:MZP3 MPT1:MPT3 MFX1:MFX3 LWB1:LWB3 LMF1:LMF3 LCJ1:LCJ3 KSN1:KSN3 KIR1:KIR3 JYV1:JYV3 JOZ1:JOZ3 JFD1:JFD3 IVH1:IVH3 ILL1:ILL3 IBP1:IBP3 HRT1:HRT3 HHX1:HHX3 GYB1:GYB3 GOF1:GOF3 GEJ1:GEJ3 FUN1:FUN3 FKR1:FKR3 FAV1:FAV3 EQZ1:EQZ3 EHD1:EHD3 DXH1:DXH3 DNL1:DNL3 DDP1:DDP3 CTT1:CTT3 CJX1:CJX3 CAB1:CAB3 BQF1:BQF3 BGJ1:BGJ3 AWN1:AWN3 AMR1:AMR3 ACV1:ACV3 SZ1:SZ3 JD1:JD3 H1:H3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO3 WLS1:WLS3 WBW1:WBW3 VSA1:VSA3 VIE1:VIE3 UYI1:UYI3 UOM1:UOM3 UEQ1:UEQ3 TUU1:TUU3 TKY1:TKY3 TBC1:TBC3 SRG1:SRG3 SHK1:SHK3 RXO1:RXO3 RNS1:RNS3 RDW1:RDW3 QUA1:QUA3 QKE1:QKE3 QAI1:QAI3 PQM1:PQM3 PGQ1:PGQ3 OWU1:OWU3 OMY1:OMY3 ODC1:ODC3 NTG1:NTG3 NJK1:NJK3 MZO1:MZO3 MPS1:MPS3 MFW1:MFW3 LWA1:LWA3 LME1:LME3 LCI1:LCI3 KSM1:KSM3 KIQ1:KIQ3 JYU1:JYU3 JOY1:JOY3 JFC1:JFC3 IVG1:IVG3 ILK1:ILK3 IBO1:IBO3 HRS1:HRS3 HHW1:HHW3 GYA1:GYA3 GOE1:GOE3 GEI1:GEI3 FUM1:FUM3 FKQ1:FKQ3 FAU1:FAU3 EQY1:EQY3 EHC1:EHC3 DXG1:DXG3 DNK1:DNK3 DDO1:DDO3 CTS1:CTS3 CJW1:CJW3 CAA1:CAA3 BQE1:BQE3 BGI1:BGI3 AWM1:AWM3 AMQ1:AMQ3 ACU1:ACU3 SY1:SY3 JC1:JC3 G1:G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1:WVO3 WLS1:WLS3 WBW1:WBW3 VSA1:VSA3 VIE1:VIE3 UYI1:UYI3 UOM1:UOM3 UEQ1:UEQ3 TUU1:TUU3 TKY1:TKY3 TBC1:TBC3 SRG1:SRG3 SHK1:SHK3 RXO1:RXO3 RNS1:RNS3 RDW1:RDW3 QUA1:QUA3 QKE1:QKE3 QAI1:QAI3 PQM1:PQM3 PGQ1:PGQ3 OWU1:OWU3 OMY1:OMY3 ODC1:ODC3 NTG1:NTG3 NJK1:NJK3 MZO1:MZO3 MPS1:MPS3 MFW1:MFW3 LWA1:LWA3 LME1:LME3 LCI1:LCI3 KSM1:KSM3 KIQ1:KIQ3 JYU1:JYU3 JOY1:JOY3 JFC1:JFC3 IVG1:IVG3 ILK1:ILK3 IBO1:IBO3 HRS1:HRS3 HHW1:HHW3 GYA1:GYA3 GOE1:GOE3 GEI1:GEI3 FUM1:FUM3 FKQ1:FKQ3 FAU1:FAU3 EQY1:EQY3 EHC1:EHC3 DXG1:DXG3 DNK1:DNK3 DDO1:DDO3 CTS1:CTS3 CJW1:CJW3 CAA1:CAA3 BQE1:BQE3 BGI1:BGI3 AWM1:AWM3 AMQ1:AMQ3 ACU1:ACU3 SY1:SY3 JC1:JC3 G1:G3" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1436,31 +1333,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="31.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="18" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.25" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1373,7 @@
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1505,173 +1402,172 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>65</v>
+      <c r="J2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="220.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>56</v>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="27">
+    <row r="5" spans="1:13" ht="40.5">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>39</v>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="135">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1745,16 +1641,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H6" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1 WLR1 WBV1 VRZ1 VID1 UYH1 UOL1 UEP1 TUT1 TKX1 TBB1 SRF1 SHJ1 RXN1 RNR1 RDV1 QTZ1 QKD1 QAH1 PQL1 PGP1 OWT1 OMX1 ODB1 NTF1 NJJ1 MZN1 MPR1 MFV1 LVZ1 LMD1 LCH1 KSL1 KIP1 JYT1 JOX1 JFB1 IVF1 ILJ1 IBN1 HRR1 HHV1 GXZ1 GOD1 GEH1 FUL1 FKP1 FAT1 EQX1 EHB1 DXF1 DNJ1 DDN1 CTR1 CJV1 BZZ1 BQD1 BGH1 AWL1 AMP1 ACT1 SX1 JB1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1 WLR1 WBV1 VRZ1 VID1 UYH1 UOL1 UEP1 TUT1 TKX1 TBB1 SRF1 SHJ1 RXN1 RNR1 RDV1 QTZ1 QKD1 QAH1 PQL1 PGP1 OWT1 OMX1 ODB1 NTF1 NJJ1 MZN1 MPR1 MFV1 LVZ1 LMD1 LCH1 KSL1 KIP1 JYT1 JOX1 JFB1 IVF1 ILJ1 IBN1 HRR1 HHV1 GXZ1 GOD1 GEH1 FUL1 FKP1 FAT1 EQX1 EHB1 DXF1 DNJ1 DDN1 CTR1 CJV1 BZZ1 BQD1 BGH1 AWL1 AMP1 ACT1 SX1 JB1" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1764,31 +1660,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="31.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="18" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.25" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1700,7 @@
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1829,68 +1725,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27">
+    <row r="2" spans="1:13" ht="40.5">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>50</v>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.5">
       <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>54</v>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1930,16 +1826,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1 WLR1 WBV1 VRZ1 VID1 UYH1 UOL1 UEP1 TUT1 TKX1 TBB1 SRF1 SHJ1 RXN1 RNR1 RDV1 QTZ1 QKD1 QAH1 PQL1 PGP1 OWT1 OMX1 ODB1 NTF1 NJJ1 MZN1 MPR1 MFV1 LVZ1 LMD1 LCH1 KSL1 KIP1 JYT1 JOX1 JFB1 IVF1 ILJ1 IBN1 HRR1 HHV1 GXZ1 GOD1 GEH1 FUL1 FKP1 FAT1 EQX1 EHB1 DXF1 DNJ1 DDN1 CTR1 CJV1 BZZ1 BQD1 BGH1 AWL1 AMP1 ACT1 SX1 JB1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN1 WLR1 WBV1 VRZ1 VID1 UYH1 UOL1 UEP1 TUT1 TKX1 TBB1 SRF1 SHJ1 RXN1 RNR1 RDV1 QTZ1 QKD1 QAH1 PQL1 PGP1 OWT1 OMX1 ODB1 NTF1 NJJ1 MZN1 MPR1 MFV1 LVZ1 LMD1 LCH1 KSL1 KIP1 JYT1 JOX1 JFB1 IVF1 ILJ1 IBN1 HRR1 HHV1 GXZ1 GOD1 GEH1 FUL1 FKP1 FAT1 EQX1 EHB1 DXF1 DNJ1 DDN1 CTR1 CJV1 BZZ1 BQD1 BGH1 AWL1 AMP1 ACT1 SX1 JB1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP1 WLT1 WBX1 VSB1 VIF1 UYJ1 UON1 UER1 TUV1 TKZ1 TBD1 SRH1 SHL1 RXP1 RNT1 RDX1 QUB1 QKF1 QAJ1 PQN1 PGR1 OWV1 OMZ1 ODD1 NTH1 NJL1 MZP1 MPT1 MFX1 LWB1 LMF1 LCJ1 KSN1 KIR1 JYV1 JOZ1 JFD1 IVH1 ILL1 IBP1 HRT1 HHX1 GYB1 GOF1 GEJ1 FUN1 FKR1 FAV1 EQZ1 EHD1 DXH1 DNL1 DDP1 CTT1 CJX1 CAB1 BQF1 BGJ1 AWN1 AMR1 ACV1 SZ1 JD1 H1:H3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO1 WLS1 WBW1 VSA1 VIE1 UYI1 UOM1 UEQ1 TUU1 TKY1 TBC1 SRG1 SHK1 RXO1 RNS1 RDW1 QUA1 QKE1 QAI1 PQM1 PGQ1 OWU1 OMY1 ODC1 NTG1 NJK1 MZO1 MPS1 MFW1 LWA1 LME1 LCI1 KSM1 KIQ1 JYU1 JOY1 JFC1 IVG1 ILK1 IBO1 HRS1 HHW1 GYA1 GOE1 GEI1 FUM1 FKQ1 FAU1 EQY1 EHC1 DXG1 DNK1 DDO1 CTS1 CJW1 CAA1 BQE1 BGI1 AWM1 AMQ1 ACU1 SY1 JC1 G1:G3" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
   </dataValidations>
